--- a/StudentGradesMoodleFormat/Assignment3_Moodle_Grades.xlsx
+++ b/StudentGradesMoodleFormat/Assignment3_Moodle_Grades.xlsx
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>6</v>
+        <v>21.07</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>100</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>41.25</v>
+        <v>49.6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>100</v>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>25.98</v>
+        <v>43.03</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>100</v>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>55.35</v>
+        <v>64.53</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>100</v>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>40.08</v>
+        <v>53.89</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>100</v>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>55.35</v>
+        <v>64.53</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>100</v>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>6</v>
+        <v>21.07</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>100</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>36.55</v>
+        <v>48.96</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>100</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>55.35</v>
+        <v>64.53</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>100</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.13</v>
+        <v>32.91</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>100</v>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>29.5</v>
+        <v>36.43</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>100</v>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>41.25</v>
+        <v>49.6</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>100</v>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>36.55</v>
+        <v>48.96</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>100</v>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.13</v>
+        <v>32.91</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>100</v>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>29.5</v>
+        <v>36.43</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>100</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>40.08</v>
+        <v>53.89</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>100</v>
